--- a/data/results/quantile/Test_output_9.xlsx
+++ b/data/results/quantile/Test_output_9.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2954,22 +2954,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4994788685926985</v>
+        <v>0.6005035594611063</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4414889226890025</v>
+        <v>0.2029708677693944</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1280473721437136</v>
+        <v>0.4699588196169101</v>
       </c>
       <c r="E110" t="n">
         <v>0.41194456741871</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5779734595256822</v>
+        <v>0.6773797807368664</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4071336653016429</v>
+        <v>0.4435644303868876</v>
       </c>
     </row>
     <row r="111">
@@ -2977,22 +2977,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6174849879502208</v>
+        <v>0.5720536990210057</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1901928149410066</v>
+        <v>0.5789108551371523</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6455511295037946</v>
+        <v>0.2324190026257224</v>
       </c>
       <c r="E111" t="n">
         <v>0.4778947270007299</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4635720403058696</v>
+        <v>0.4948225292010057</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6026836236817994</v>
+        <v>0.5730331566112146</v>
       </c>
     </row>
     <row r="112">
@@ -3000,22 +3000,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5374082323160355</v>
+        <v>0.6161093231685929</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2619425718550391</v>
+        <v>0.437561449416754</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1398810152987597</v>
+        <v>0.2667003845875004</v>
       </c>
       <c r="E112" t="n">
         <v>0.5822621148469829</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4964641981870641</v>
+        <v>0.6871851125021257</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4375849180157119</v>
+        <v>0.1779890610212974</v>
       </c>
     </row>
     <row r="113">
@@ -3023,22 +3023,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5112060170354302</v>
+        <v>0.6366278769680922</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4091448492376886</v>
+        <v>0.707594537950563</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9058744977486223</v>
+        <v>0.3800217180322624</v>
       </c>
       <c r="E113" t="n">
         <v>0.3107974084094954</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5079792577847529</v>
+        <v>0.4590884337743543</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5019166667658366</v>
+        <v>0.3788822677541089</v>
       </c>
     </row>
     <row r="114">
@@ -3046,22 +3046,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5000533293704769</v>
+        <v>0.4401587275785309</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4331207093049078</v>
+        <v>0.3740797345245115</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1977023403336035</v>
+        <v>0.06696088012055634</v>
       </c>
       <c r="E114" t="n">
         <v>0.8789615239620603</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5666773717445386</v>
+        <v>0.5069805489480494</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6333254396092136</v>
+        <v>0.6464069252678685</v>
       </c>
     </row>
     <row r="115">
@@ -3069,22 +3069,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6179084549774201</v>
+        <v>0.4598724983826361</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4084006435527286</v>
+        <v>0.4673522028781171</v>
       </c>
       <c r="D115" t="n">
-        <v>0.638834717642015</v>
+        <v>0.3071767445330582</v>
       </c>
       <c r="E115" t="n">
         <v>0.1810685369693951</v>
       </c>
       <c r="F115" t="n">
-        <v>0.496629894798638</v>
+        <v>0.6718744824138297</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5566767390120763</v>
+        <v>0.766042243004998</v>
       </c>
     </row>
     <row r="116">
@@ -3092,22 +3092,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4912657100649012</v>
+        <v>0.3726136599570053</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3616750275896167</v>
+        <v>0.5246190933574062</v>
       </c>
       <c r="D116" t="n">
-        <v>0.408778597842207</v>
+        <v>0.5982089566419979</v>
       </c>
       <c r="E116" t="n">
         <v>0.2940205150749525</v>
       </c>
       <c r="F116" t="n">
-        <v>0.519143315219399</v>
+        <v>0.4882558666957898</v>
       </c>
       <c r="G116" t="n">
-        <v>0.588114697486266</v>
+        <v>0.3095551150089361</v>
       </c>
     </row>
     <row r="117">
@@ -3115,22 +3115,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5006151603509871</v>
+        <v>0.4303804561406099</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4491915733731256</v>
+        <v>0.5543034549155472</v>
       </c>
       <c r="D117" t="n">
-        <v>0.335003544703686</v>
+        <v>0.4237007406149451</v>
       </c>
       <c r="E117" t="n">
         <v>0.4462639348573184</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6484496324196597</v>
+        <v>0.5395429987270521</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2538735193531702</v>
+        <v>0.4504411048854753</v>
       </c>
     </row>
     <row r="118">
@@ -3138,22 +3138,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6730862867977864</v>
+        <v>0.8842277162452568</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5816126778054521</v>
+        <v>0.3865446438167179</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8345517195983907</v>
+        <v>0.08295592506133692</v>
       </c>
       <c r="E118" t="n">
         <v>0.7976744528457572</v>
       </c>
       <c r="F118" t="n">
-        <v>0.655485778212592</v>
+        <v>0.6104017906068171</v>
       </c>
       <c r="G118" t="n">
-        <v>0.668601940152302</v>
+        <v>0.4818604386410339</v>
       </c>
     </row>
     <row r="119">
@@ -3161,22 +3161,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5467880312900042</v>
+        <v>0.6109369889710202</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3998418447066703</v>
+        <v>0.5479025645086695</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7292720500932806</v>
+        <v>0.6824483220450402</v>
       </c>
       <c r="E119" t="n">
         <v>0.6131060162630924</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5610365759576682</v>
+        <v>0.6349095247954657</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4634006260805589</v>
+        <v>0.7100607244657712</v>
       </c>
     </row>
     <row r="120">
@@ -3184,22 +3184,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5822406001424313</v>
+        <v>0.7036115695413901</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2209245539356222</v>
+        <v>0.5410149932262736</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8096940802351124</v>
+        <v>0.3218654764666174</v>
       </c>
       <c r="E120" t="n">
         <v>0.5152578085207764</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5698919636564179</v>
+        <v>0.6101386798874653</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4718956625668007</v>
+        <v>0.4785915018123533</v>
       </c>
     </row>
     <row r="121">
@@ -3207,22 +3207,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5171763174997976</v>
+        <v>0.609638129957975</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248041649982184</v>
+        <v>0.2384754500916846</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2503962220602448</v>
+        <v>0.5177928977024814</v>
       </c>
       <c r="E121" t="n">
         <v>0.6279653935672939</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5969069256316464</v>
+        <v>0.4209109893019387</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3734111635653478</v>
+        <v>0.4394635216976973</v>
       </c>
     </row>
   </sheetData>
